--- a/trunk/documentacao/G4_Atividades2sem2014.xlsx
+++ b/trunk/documentacao/G4_Atividades2sem2014.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15180" windowHeight="7815" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15180" windowHeight="7815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="1" r:id="rId1"/>
     <sheet name="Semana 1" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
+    <sheet name="Semana 2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>Atividades</t>
   </si>
@@ -66,40 +66,61 @@
     <t>Aluno 2</t>
   </si>
   <si>
+    <t xml:space="preserve">Integrantes: </t>
+  </si>
+  <si>
+    <t>Semana 1</t>
+  </si>
+  <si>
+    <t>Objetivo da Semana</t>
+  </si>
+  <si>
+    <t>Ter o grupo e o tema de trabalho bem definidos para o desenvolvimento do projeto.</t>
+  </si>
+  <si>
+    <t>Atividades Semana 1</t>
+  </si>
+  <si>
+    <t>Semana 2</t>
+  </si>
+  <si>
+    <t>Descrever e rever a visão do sistema através dos requisitos funcionais e não funcionais.</t>
+  </si>
+  <si>
+    <t>2.1 Descrições dos Envolvidos e Usuários</t>
+  </si>
+  <si>
+    <t>2.2 Visão Geral do Produto</t>
+  </si>
+  <si>
+    <t>2.3 Requisitos Funcionais do Produto</t>
+  </si>
+  <si>
+    <t>2.4 Requisitos Não Funcionais do Produto</t>
+  </si>
+  <si>
+    <t>Resultado Final Semana</t>
+  </si>
+  <si>
+    <t>Gerenciamento de Exames</t>
+  </si>
+  <si>
+    <t>Danilo Missio</t>
+  </si>
+  <si>
+    <t>Gabriel Piccolo</t>
+  </si>
+  <si>
+    <t>Vinicius Romão</t>
+  </si>
+  <si>
+    <t>Pedro Gimenes</t>
+  </si>
+  <si>
     <t>Aluno 3</t>
   </si>
   <si>
     <t>Aluno 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integrantes: </t>
-  </si>
-  <si>
-    <t>Semana 1</t>
-  </si>
-  <si>
-    <t>Objetivo da Semana</t>
-  </si>
-  <si>
-    <t>Ter o grupo e o tema de trabalho bem definidos para o desenvolvimento do projeto.</t>
-  </si>
-  <si>
-    <t>Atividades Semana 1</t>
-  </si>
-  <si>
-    <t>Gerenciador de Atividades Escolares</t>
-  </si>
-  <si>
-    <t>Ana Paula Siqueira</t>
-  </si>
-  <si>
-    <t>Luis Fernando Brandão</t>
-  </si>
-  <si>
-    <t>Luiza Helena Favaretto</t>
-  </si>
-  <si>
-    <t>Waldinei Pereira da Silva</t>
   </si>
 </sst>
 </file>
@@ -295,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -303,52 +324,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -357,6 +369,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,7 +692,7 @@
   <dimension ref="B3:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,8 +704,8 @@
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="19">
-        <v>5</v>
+      <c r="C3" s="5">
+        <v>4</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -688,76 +718,76 @@
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="C5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="7" spans="2:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="C8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="C9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+        <v>32</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
+        <v>33</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -776,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,85 +818,85 @@
   <sheetData>
     <row r="2" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
       <c r="N11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="2" t="s">
         <v>4</v>
       </c>
@@ -875,13 +905,13 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="1" t="s">
         <v>5</v>
       </c>
@@ -890,13 +920,13 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="1" t="s">
         <v>5</v>
       </c>
@@ -905,35 +935,37 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="1"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="1"/>
     </row>
   </sheetData>
@@ -958,12 +990,179 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="N11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="1"/>
+      <c r="N13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="1"/>
+      <c r="N14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B4:G9"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13:G17">
+      <formula1>$N$11:$N$14</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/trunk/documentacao/G4_Atividades2sem2014.xlsx
+++ b/trunk/documentacao/G4_Atividades2sem2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15180" windowHeight="7815" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15180" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>Atividades</t>
   </si>
@@ -325,6 +325,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -377,15 +386,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -718,15 +718,15 @@
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="7" spans="2:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
@@ -737,57 +737,57 @@
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -806,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,76 +827,76 @@
       </c>
     </row>
     <row r="4" spans="2:14" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
       <c r="N11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="2" t="s">
         <v>4</v>
       </c>
@@ -905,13 +905,13 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="1" t="s">
         <v>5</v>
       </c>
@@ -920,13 +920,13 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="1" t="s">
         <v>5</v>
       </c>
@@ -935,38 +935,40 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="1"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -992,7 +994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -1013,76 +1015,76 @@
       </c>
     </row>
     <row r="4" spans="2:14" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
       <c r="N11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="2" t="s">
         <v>4</v>
       </c>
@@ -1091,59 +1093,59 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="1"/>
       <c r="N13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="1"/>
       <c r="N14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
       <c r="G17" s="1"/>
     </row>
   </sheetData>

--- a/trunk/documentacao/G4_Atividades2sem2014.xlsx
+++ b/trunk/documentacao/G4_Atividades2sem2014.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15180" windowHeight="7815" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15180" windowHeight="7815" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="1" r:id="rId1"/>
     <sheet name="Semana 1" sheetId="2" r:id="rId2"/>
     <sheet name="Semana 2" sheetId="4" r:id="rId3"/>
+    <sheet name="Semana 3" sheetId="5" r:id="rId4"/>
+    <sheet name="Semana 4" sheetId="6" r:id="rId5"/>
+    <sheet name="Semana 5" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="47">
   <si>
     <t>Atividades</t>
   </si>
@@ -121,6 +124,45 @@
   </si>
   <si>
     <t>Aluno 4</t>
+  </si>
+  <si>
+    <t>Todos: Delimitar o escopo do sistema (tópico 3.4), selecionando aqueles casos de uso a serem desenvolvidos. Justificar seleção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para reformulação do tema: Elaboração dos casos de uso para o projeto. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para continuidade do tema: Revisão dos casos de uso. </t>
+  </si>
+  <si>
+    <t>Atividades da Semana</t>
+  </si>
+  <si>
+    <t>Descrever Casos de Uso do sistema e, dentre esses casos de uso, aqueles que compõem o escopo do sistema.</t>
+  </si>
+  <si>
+    <t>Semana 3</t>
+  </si>
+  <si>
+    <t>[IU] Telas baixa fidelidade (item 4.1.2)</t>
+  </si>
+  <si>
+    <t>[IU] Definição dos Guidelines de Interface (Disciplina Interação Humano Computador)</t>
+  </si>
+  <si>
+    <t>Aplicar técnicas e recursos da disciplina Interface Humano Computador para definir guideline de interface e propor protótipo de baixa fidelidade aderente ao guideline.</t>
+  </si>
+  <si>
+    <t>Semana 4</t>
+  </si>
+  <si>
+    <t>[WEB] Desenvolvimento do layout do site com base nas telas de baixa de fidelidade.</t>
+  </si>
+  <si>
+    <t>Definição da Interface do Usuário e do layout visual da página Web.</t>
+  </si>
+  <si>
+    <t>Semana 5</t>
   </si>
 </sst>
 </file>
@@ -806,7 +848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -995,7 +1037,7 @@
   <dimension ref="B2:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,7 +1142,9 @@
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="N13" t="s">
         <v>6</v>
       </c>
@@ -1113,7 +1157,9 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="N14" t="s">
         <v>7</v>
       </c>
@@ -1126,7 +1172,9 @@
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
@@ -1136,7 +1184,9 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="24" t="s">
@@ -1167,4 +1217,538 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="N11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B4:G9"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13:G17">
+      <formula1>$N$11:$N$14</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="N11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B4:G9"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13:G17">
+      <formula1>$N$11:$N$14</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="N11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="1"/>
+      <c r="N13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="1"/>
+      <c r="N14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B4:G9"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13:G17">
+      <formula1>$N$11:$N$14</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/trunk/documentacao/G4_Atividades2sem2014.xlsx
+++ b/trunk/documentacao/G4_Atividades2sem2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15180" windowHeight="7815" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15180" windowHeight="7815" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,74 @@
     <sheet name="Semana 3" sheetId="5" r:id="rId4"/>
     <sheet name="Semana 4" sheetId="6" r:id="rId5"/>
     <sheet name="Semana 5" sheetId="7" r:id="rId6"/>
+    <sheet name="Bimestre 2" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Joao Ronaldo</author>
+  </authors>
+  <commentList>
+    <comment ref="N5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Joao Ronaldo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Telas com poucas informações reais que possam ser úteis para auxiliar na análise requisitos.
+Faltou incluir geração de código do cliente e tb aplicar comentários feitos na apresentação como a questão do atendente.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Joao Ronaldo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Problemas na presentação da realização do exame.
+Faltou informações que foram representadas nos protótipos</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="83">
   <si>
     <t>Atividades</t>
   </si>
@@ -163,13 +224,121 @@
   </si>
   <si>
     <t>Semana 5</t>
+  </si>
+  <si>
+    <t>Semana 6 (06/10/2014)</t>
+  </si>
+  <si>
+    <t>Definição do protótipo de alta fidelidade e criação do modelo conceitual do banco de dados para realização dos casos de uso contidos no escopo do sistema.</t>
+  </si>
+  <si>
+    <t>[IU] Protótipo das Telas Alta Fidelidade- (item 4.1.3)</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>[BD] Conceitual (Peter Chen) e Lógico (tabelas) (tópico 4.4)</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Semana 7 (13/10/2014)</t>
+  </si>
+  <si>
+    <t>Definição da arquitetura do sistema, com definição das decisões de projeto. Análise de contexto da aplicação.</t>
+  </si>
+  <si>
+    <t>[WEB] Arquitetura do Sistema (tópico 4.3)</t>
+  </si>
+  <si>
+    <t>[IU] Analise de Contexto - (tópico 3.5)</t>
+  </si>
+  <si>
+    <t>Semana 8 (20/10/2014)</t>
+  </si>
+  <si>
+    <t>Concluir introdução e iniciar descrição de como os casos de uso serão realizados no seistema com base na arquitetura do sistema definida na semana anterior.</t>
+  </si>
+  <si>
+    <t>[PINT] Fechar página rosto, resumo, índice, etc.</t>
+  </si>
+  <si>
+    <t>[PINT] Fechar Introdução (capítulo 1 completo)</t>
+  </si>
+  <si>
+    <t>[WEB] Realização de casos de uso (Tópico 4.3.1)</t>
+  </si>
+  <si>
+    <t>Semana 9 (27/10/2014)</t>
+  </si>
+  <si>
+    <t>Finalização de Realização dos Casos de Uso descrevendo como cada caso de uso. Conclusão do esquema do banco de dados.</t>
+  </si>
+  <si>
+    <t>[BD] Revisão e fechamento do esquema de banco de dados (tópico 4.4)</t>
+  </si>
+  <si>
+    <t>Semana 9 (03/11/2014)</t>
+  </si>
+  <si>
+    <t>Inspeção de Usabilidade do sistema usando como base os guidelines definidos no projeto. Especificação da configuração da aplicação web.</t>
+  </si>
+  <si>
+    <t>[WEB] Configuração (capítulo 5)</t>
+  </si>
+  <si>
+    <t>[PINT] Conclusão e Bibliografia (capítulos 6 e 7)</t>
+  </si>
+  <si>
+    <t>[IU] Inspeção de Usabilidade (tópico 4.5)</t>
+  </si>
+  <si>
+    <t>Semana 11 (10/11/2014)</t>
+  </si>
+  <si>
+    <t>Finalização do desenvolvimento dos casos de uso definidos no escopo do sistema.</t>
+  </si>
+  <si>
+    <t>[WEB] Finalização do desenvolvimento dos casos de uso (Tópico 4.3.1)</t>
+  </si>
+  <si>
+    <t>[PINT] Inicio elaboração apresentação slides final.</t>
+  </si>
+  <si>
+    <t>Semana 12 (17/11/2014)</t>
+  </si>
+  <si>
+    <t>Fechamento do formato final do documento.</t>
+  </si>
+  <si>
+    <t>Conclusão do documento.</t>
+  </si>
+  <si>
+    <t>Correção dos comentários contidos no documento.</t>
+  </si>
+  <si>
+    <t>Semana 13 (24/11/2014)</t>
+  </si>
+  <si>
+    <t>Entrega do Relatório para distribuição banca (3 vias).</t>
+  </si>
+  <si>
+    <t>Orientação Aplicação Web</t>
+  </si>
+  <si>
+    <t>Entrega do relatório.</t>
+  </si>
+  <si>
+    <t>Definição das apresentações TCM.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +367,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -358,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -430,6 +612,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,7 +633,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1406,7 +1594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -1751,4 +1939,1081 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:R72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.140625" customWidth="1"/>
+    <col min="13" max="13" width="26.7109375" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B3" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="I3" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+    </row>
+    <row r="4" spans="2:18" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+      <c r="I4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="I5" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="I6" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="1"/>
+      <c r="R7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+      <c r="I9" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B11" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B12" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="I12" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+    </row>
+    <row r="13" spans="2:18" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="I13" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
+      <c r="I14" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
+      <c r="I15" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+      <c r="I18" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="20" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B20" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B21" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="I21" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+    </row>
+    <row r="22" spans="2:14" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="I22" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
+      <c r="I23" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="16"/>
+      <c r="I24" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
+      <c r="I25" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
+      <c r="I27" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="29" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B29" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B30" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="I30" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+    </row>
+    <row r="31" spans="2:14" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
+      <c r="I31" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="16"/>
+      <c r="I32" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="16"/>
+      <c r="I33" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="16"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="16"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="19"/>
+      <c r="I36" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="38" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B38" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B39" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="I39" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+    </row>
+    <row r="40" spans="2:14" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="13"/>
+      <c r="I40" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="14"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="16"/>
+      <c r="I41" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="14"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="16"/>
+      <c r="I42" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="16"/>
+      <c r="I43" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="14"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="16"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="19"/>
+      <c r="I45" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="47" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B47" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B48" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="I48" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+    </row>
+    <row r="49" spans="2:14" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="13"/>
+      <c r="I49" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="14"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="16"/>
+      <c r="I50" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="14"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="16"/>
+      <c r="I51" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="14"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="16"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="14"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="16"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="17"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="19"/>
+      <c r="I54" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="56" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B56" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B57" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="I57" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="27"/>
+    </row>
+    <row r="58" spans="2:14" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="13"/>
+      <c r="I58" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="26"/>
+      <c r="N58" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="14"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="16"/>
+      <c r="I59" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="14"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="16"/>
+      <c r="I60" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="14"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="16"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="14"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="16"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="19"/>
+      <c r="I63" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="65" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B65" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B66" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="I66" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="J66" s="27"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="27"/>
+      <c r="M66" s="27"/>
+      <c r="N66" s="27"/>
+    </row>
+    <row r="67" spans="2:14" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="13"/>
+      <c r="I67" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="26"/>
+      <c r="N67" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B68" s="14"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="16"/>
+      <c r="I68" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="J68" s="20"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="14"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="16"/>
+      <c r="I69" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="J69" s="20"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="20"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="14"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="16"/>
+      <c r="I70" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J70" s="20"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="14"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="16"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="1"/>
+    </row>
+    <row r="72" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="19"/>
+      <c r="I72" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="72">
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="I66:N66"/>
+    <mergeCell ref="B67:G72"/>
+    <mergeCell ref="I67:M67"/>
+    <mergeCell ref="I68:M68"/>
+    <mergeCell ref="I69:M69"/>
+    <mergeCell ref="I70:M70"/>
+    <mergeCell ref="I71:M71"/>
+    <mergeCell ref="I72:M72"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="I57:N57"/>
+    <mergeCell ref="B58:G63"/>
+    <mergeCell ref="I58:M58"/>
+    <mergeCell ref="I59:M59"/>
+    <mergeCell ref="I60:M60"/>
+    <mergeCell ref="I61:M61"/>
+    <mergeCell ref="I62:M62"/>
+    <mergeCell ref="I63:M63"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="I48:N48"/>
+    <mergeCell ref="B49:G54"/>
+    <mergeCell ref="I49:M49"/>
+    <mergeCell ref="I50:M50"/>
+    <mergeCell ref="I51:M51"/>
+    <mergeCell ref="I52:M52"/>
+    <mergeCell ref="I53:M53"/>
+    <mergeCell ref="I54:M54"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="B40:G45"/>
+    <mergeCell ref="I40:M40"/>
+    <mergeCell ref="I41:M41"/>
+    <mergeCell ref="I42:M42"/>
+    <mergeCell ref="I43:M43"/>
+    <mergeCell ref="I44:M44"/>
+    <mergeCell ref="I45:M45"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="B31:G36"/>
+    <mergeCell ref="I31:M31"/>
+    <mergeCell ref="I32:M32"/>
+    <mergeCell ref="I33:M33"/>
+    <mergeCell ref="I34:M34"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="I36:M36"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="B22:G27"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="I23:M23"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="I25:M25"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="I27:M27"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="B13:G18"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="B4:G9"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="I9:M9"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N9 N14:N18 N23:N27 N32:N36 N41:N45 N50:N54 N59:N63 N68:N72">
+      <formula1>$R$5:$R$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/trunk/documentacao/G4_Atividades2sem2014.xlsx
+++ b/trunk/documentacao/G4_Atividades2sem2014.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="84">
   <si>
     <t>Atividades</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>Definição das apresentações TCM.</t>
+  </si>
+  <si>
+    <t>Faltou fazer as correções da semana anterior.</t>
   </si>
 </sst>
 </file>
@@ -1946,7 +1949,7 @@
   <dimension ref="B2:R72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2150,7 +2153,12 @@
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
-      <c r="N14" s="1"/>
+      <c r="N14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="15" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="14"/>
@@ -2166,7 +2174,9 @@
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
-      <c r="N15" s="1"/>
+      <c r="N15" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
@@ -2210,7 +2220,9 @@
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
-      <c r="N18" s="1"/>
+      <c r="N18" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B20" s="3" t="s">

--- a/trunk/documentacao/G4_Atividades2sem2014.xlsx
+++ b/trunk/documentacao/G4_Atividades2sem2014.xlsx
@@ -75,12 +75,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="N27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Joao Ronaldo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+-Faltou corrigir o que está apontado (capitulo 2). 
+-Problemas no resumo e palavras chave.
+-Não foi feita a realização de casos de uso.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="84">
   <si>
     <t>Atividades</t>
   </si>
@@ -1948,8 +1974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2281,7 +2307,9 @@
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
-      <c r="N23" s="1"/>
+      <c r="N23" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="14"/>
@@ -2297,7 +2325,9 @@
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
       <c r="M24" s="20"/>
-      <c r="N24" s="1"/>
+      <c r="N24" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="14"/>
@@ -2313,7 +2343,9 @@
       <c r="K25" s="20"/>
       <c r="L25" s="20"/>
       <c r="M25" s="20"/>
-      <c r="N25" s="1"/>
+      <c r="N25" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="14"/>
@@ -2343,7 +2375,9 @@
       <c r="K27" s="24"/>
       <c r="L27" s="24"/>
       <c r="M27" s="24"/>
-      <c r="N27" s="1"/>
+      <c r="N27" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="29" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -2946,6 +2980,69 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="B4:G9"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="B13:G18"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="B22:G27"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="I23:M23"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="I25:M25"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="I27:M27"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="B31:G36"/>
+    <mergeCell ref="I31:M31"/>
+    <mergeCell ref="I32:M32"/>
+    <mergeCell ref="I33:M33"/>
+    <mergeCell ref="I34:M34"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="I36:M36"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="B40:G45"/>
+    <mergeCell ref="I40:M40"/>
+    <mergeCell ref="I41:M41"/>
+    <mergeCell ref="I42:M42"/>
+    <mergeCell ref="I43:M43"/>
+    <mergeCell ref="I44:M44"/>
+    <mergeCell ref="I45:M45"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="I48:N48"/>
+    <mergeCell ref="B49:G54"/>
+    <mergeCell ref="I49:M49"/>
+    <mergeCell ref="I50:M50"/>
+    <mergeCell ref="I51:M51"/>
+    <mergeCell ref="I52:M52"/>
+    <mergeCell ref="I53:M53"/>
+    <mergeCell ref="I54:M54"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="I57:N57"/>
+    <mergeCell ref="B58:G63"/>
+    <mergeCell ref="I58:M58"/>
+    <mergeCell ref="I59:M59"/>
+    <mergeCell ref="I60:M60"/>
+    <mergeCell ref="I61:M61"/>
+    <mergeCell ref="I62:M62"/>
+    <mergeCell ref="I63:M63"/>
     <mergeCell ref="B66:G66"/>
     <mergeCell ref="I66:N66"/>
     <mergeCell ref="B67:G72"/>
@@ -2955,69 +3052,6 @@
     <mergeCell ref="I70:M70"/>
     <mergeCell ref="I71:M71"/>
     <mergeCell ref="I72:M72"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="I57:N57"/>
-    <mergeCell ref="B58:G63"/>
-    <mergeCell ref="I58:M58"/>
-    <mergeCell ref="I59:M59"/>
-    <mergeCell ref="I60:M60"/>
-    <mergeCell ref="I61:M61"/>
-    <mergeCell ref="I62:M62"/>
-    <mergeCell ref="I63:M63"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="I48:N48"/>
-    <mergeCell ref="B49:G54"/>
-    <mergeCell ref="I49:M49"/>
-    <mergeCell ref="I50:M50"/>
-    <mergeCell ref="I51:M51"/>
-    <mergeCell ref="I52:M52"/>
-    <mergeCell ref="I53:M53"/>
-    <mergeCell ref="I54:M54"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="B40:G45"/>
-    <mergeCell ref="I40:M40"/>
-    <mergeCell ref="I41:M41"/>
-    <mergeCell ref="I42:M42"/>
-    <mergeCell ref="I43:M43"/>
-    <mergeCell ref="I44:M44"/>
-    <mergeCell ref="I45:M45"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="I30:N30"/>
-    <mergeCell ref="B31:G36"/>
-    <mergeCell ref="I31:M31"/>
-    <mergeCell ref="I32:M32"/>
-    <mergeCell ref="I33:M33"/>
-    <mergeCell ref="I34:M34"/>
-    <mergeCell ref="I35:M35"/>
-    <mergeCell ref="I36:M36"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="B22:G27"/>
-    <mergeCell ref="I22:M22"/>
-    <mergeCell ref="I23:M23"/>
-    <mergeCell ref="I24:M24"/>
-    <mergeCell ref="I25:M25"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="I27:M27"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="B13:G18"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="I17:M17"/>
-    <mergeCell ref="I18:M18"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="B4:G9"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="I9:M9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N9 N14:N18 N23:N27 N32:N36 N41:N45 N50:N54 N59:N63 N68:N72">

--- a/trunk/documentacao/G4_Atividades2sem2014.xlsx
+++ b/trunk/documentacao/G4_Atividades2sem2014.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="135" windowWidth="15180" windowHeight="7815" activeTab="6"/>
@@ -23,6 +23,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Joao Ronaldo</author>
+    <author>Proprietario</author>
   </authors>
   <commentList>
     <comment ref="N5" authorId="0">
@@ -101,12 +102,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="N36" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Proprietario:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+- Ainda alguns problemas na realização dos casos de uso.
+- Rever modelos lógico e conceitual.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="84">
   <si>
     <t>Atividades</t>
   </si>
@@ -1974,8 +2000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="E26" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2436,7 +2462,9 @@
       <c r="K32" s="20"/>
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
-      <c r="N32" s="1"/>
+      <c r="N32" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="14"/>
@@ -2452,7 +2480,9 @@
       <c r="K33" s="20"/>
       <c r="L33" s="20"/>
       <c r="M33" s="20"/>
-      <c r="N33" s="1"/>
+      <c r="N33" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="34" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="14"/>
@@ -2496,7 +2526,9 @@
       <c r="K36" s="24"/>
       <c r="L36" s="24"/>
       <c r="M36" s="24"/>
-      <c r="N36" s="1"/>
+      <c r="N36" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B38" s="3" t="s">
@@ -2980,6 +3012,69 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="I66:N66"/>
+    <mergeCell ref="B67:G72"/>
+    <mergeCell ref="I67:M67"/>
+    <mergeCell ref="I68:M68"/>
+    <mergeCell ref="I69:M69"/>
+    <mergeCell ref="I70:M70"/>
+    <mergeCell ref="I71:M71"/>
+    <mergeCell ref="I72:M72"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="I57:N57"/>
+    <mergeCell ref="B58:G63"/>
+    <mergeCell ref="I58:M58"/>
+    <mergeCell ref="I59:M59"/>
+    <mergeCell ref="I60:M60"/>
+    <mergeCell ref="I61:M61"/>
+    <mergeCell ref="I62:M62"/>
+    <mergeCell ref="I63:M63"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="I48:N48"/>
+    <mergeCell ref="B49:G54"/>
+    <mergeCell ref="I49:M49"/>
+    <mergeCell ref="I50:M50"/>
+    <mergeCell ref="I51:M51"/>
+    <mergeCell ref="I52:M52"/>
+    <mergeCell ref="I53:M53"/>
+    <mergeCell ref="I54:M54"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="B40:G45"/>
+    <mergeCell ref="I40:M40"/>
+    <mergeCell ref="I41:M41"/>
+    <mergeCell ref="I42:M42"/>
+    <mergeCell ref="I43:M43"/>
+    <mergeCell ref="I44:M44"/>
+    <mergeCell ref="I45:M45"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="B31:G36"/>
+    <mergeCell ref="I31:M31"/>
+    <mergeCell ref="I32:M32"/>
+    <mergeCell ref="I33:M33"/>
+    <mergeCell ref="I34:M34"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="I36:M36"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="B22:G27"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="I23:M23"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="I25:M25"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="I27:M27"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="B13:G18"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="I18:M18"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="B4:G9"/>
@@ -2989,69 +3084,6 @@
     <mergeCell ref="I7:M7"/>
     <mergeCell ref="I8:M8"/>
     <mergeCell ref="I9:M9"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="B13:G18"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="I17:M17"/>
-    <mergeCell ref="I18:M18"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="B22:G27"/>
-    <mergeCell ref="I22:M22"/>
-    <mergeCell ref="I23:M23"/>
-    <mergeCell ref="I24:M24"/>
-    <mergeCell ref="I25:M25"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="I27:M27"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="I30:N30"/>
-    <mergeCell ref="B31:G36"/>
-    <mergeCell ref="I31:M31"/>
-    <mergeCell ref="I32:M32"/>
-    <mergeCell ref="I33:M33"/>
-    <mergeCell ref="I34:M34"/>
-    <mergeCell ref="I35:M35"/>
-    <mergeCell ref="I36:M36"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="B40:G45"/>
-    <mergeCell ref="I40:M40"/>
-    <mergeCell ref="I41:M41"/>
-    <mergeCell ref="I42:M42"/>
-    <mergeCell ref="I43:M43"/>
-    <mergeCell ref="I44:M44"/>
-    <mergeCell ref="I45:M45"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="I48:N48"/>
-    <mergeCell ref="B49:G54"/>
-    <mergeCell ref="I49:M49"/>
-    <mergeCell ref="I50:M50"/>
-    <mergeCell ref="I51:M51"/>
-    <mergeCell ref="I52:M52"/>
-    <mergeCell ref="I53:M53"/>
-    <mergeCell ref="I54:M54"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="I57:N57"/>
-    <mergeCell ref="B58:G63"/>
-    <mergeCell ref="I58:M58"/>
-    <mergeCell ref="I59:M59"/>
-    <mergeCell ref="I60:M60"/>
-    <mergeCell ref="I61:M61"/>
-    <mergeCell ref="I62:M62"/>
-    <mergeCell ref="I63:M63"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="I66:N66"/>
-    <mergeCell ref="B67:G72"/>
-    <mergeCell ref="I67:M67"/>
-    <mergeCell ref="I68:M68"/>
-    <mergeCell ref="I69:M69"/>
-    <mergeCell ref="I70:M70"/>
-    <mergeCell ref="I71:M71"/>
-    <mergeCell ref="I72:M72"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N9 N14:N18 N23:N27 N32:N36 N41:N45 N50:N54 N59:N63 N68:N72">

--- a/trunk/documentacao/G4_Atividades2sem2014.xlsx
+++ b/trunk/documentacao/G4_Atividades2sem2014.xlsx
@@ -86,7 +86,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Joao Ronaldo:</t>
+          <t>Professor</t>
         </r>
         <r>
           <rPr>
@@ -112,7 +112,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Proprietario:</t>
+          <t>Professor</t>
         </r>
         <r>
           <rPr>
@@ -127,12 +127,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="N45" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Professor</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Adicionados novos comentários nos itens trabalhados nesta semana.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="84">
   <si>
     <t>Atividades</t>
   </si>
@@ -2000,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E26" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" topLeftCell="E32" workbookViewId="0">
+      <selection activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2587,7 +2611,9 @@
       <c r="K41" s="20"/>
       <c r="L41" s="20"/>
       <c r="M41" s="20"/>
-      <c r="N41" s="1"/>
+      <c r="N41" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="42" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="14"/>
@@ -2603,7 +2629,9 @@
       <c r="K42" s="20"/>
       <c r="L42" s="20"/>
       <c r="M42" s="20"/>
-      <c r="N42" s="1"/>
+      <c r="N42" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="43" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="14"/>
@@ -2619,7 +2647,9 @@
       <c r="K43" s="20"/>
       <c r="L43" s="20"/>
       <c r="M43" s="20"/>
-      <c r="N43" s="1"/>
+      <c r="N43" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="44" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="14"/>
@@ -2649,7 +2679,9 @@
       <c r="K45" s="24"/>
       <c r="L45" s="24"/>
       <c r="M45" s="24"/>
-      <c r="N45" s="1"/>
+      <c r="N45" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="47" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B47" s="3" t="s">
@@ -3012,6 +3044,69 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="B4:G9"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="B13:G18"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="B22:G27"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="I23:M23"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="I25:M25"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="I27:M27"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="B31:G36"/>
+    <mergeCell ref="I31:M31"/>
+    <mergeCell ref="I32:M32"/>
+    <mergeCell ref="I33:M33"/>
+    <mergeCell ref="I34:M34"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="I36:M36"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="B40:G45"/>
+    <mergeCell ref="I40:M40"/>
+    <mergeCell ref="I41:M41"/>
+    <mergeCell ref="I42:M42"/>
+    <mergeCell ref="I43:M43"/>
+    <mergeCell ref="I44:M44"/>
+    <mergeCell ref="I45:M45"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="I48:N48"/>
+    <mergeCell ref="B49:G54"/>
+    <mergeCell ref="I49:M49"/>
+    <mergeCell ref="I50:M50"/>
+    <mergeCell ref="I51:M51"/>
+    <mergeCell ref="I52:M52"/>
+    <mergeCell ref="I53:M53"/>
+    <mergeCell ref="I54:M54"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="I57:N57"/>
+    <mergeCell ref="B58:G63"/>
+    <mergeCell ref="I58:M58"/>
+    <mergeCell ref="I59:M59"/>
+    <mergeCell ref="I60:M60"/>
+    <mergeCell ref="I61:M61"/>
+    <mergeCell ref="I62:M62"/>
+    <mergeCell ref="I63:M63"/>
     <mergeCell ref="B66:G66"/>
     <mergeCell ref="I66:N66"/>
     <mergeCell ref="B67:G72"/>
@@ -3021,69 +3116,6 @@
     <mergeCell ref="I70:M70"/>
     <mergeCell ref="I71:M71"/>
     <mergeCell ref="I72:M72"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="I57:N57"/>
-    <mergeCell ref="B58:G63"/>
-    <mergeCell ref="I58:M58"/>
-    <mergeCell ref="I59:M59"/>
-    <mergeCell ref="I60:M60"/>
-    <mergeCell ref="I61:M61"/>
-    <mergeCell ref="I62:M62"/>
-    <mergeCell ref="I63:M63"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="I48:N48"/>
-    <mergeCell ref="B49:G54"/>
-    <mergeCell ref="I49:M49"/>
-    <mergeCell ref="I50:M50"/>
-    <mergeCell ref="I51:M51"/>
-    <mergeCell ref="I52:M52"/>
-    <mergeCell ref="I53:M53"/>
-    <mergeCell ref="I54:M54"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="B40:G45"/>
-    <mergeCell ref="I40:M40"/>
-    <mergeCell ref="I41:M41"/>
-    <mergeCell ref="I42:M42"/>
-    <mergeCell ref="I43:M43"/>
-    <mergeCell ref="I44:M44"/>
-    <mergeCell ref="I45:M45"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="I30:N30"/>
-    <mergeCell ref="B31:G36"/>
-    <mergeCell ref="I31:M31"/>
-    <mergeCell ref="I32:M32"/>
-    <mergeCell ref="I33:M33"/>
-    <mergeCell ref="I34:M34"/>
-    <mergeCell ref="I35:M35"/>
-    <mergeCell ref="I36:M36"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="B22:G27"/>
-    <mergeCell ref="I22:M22"/>
-    <mergeCell ref="I23:M23"/>
-    <mergeCell ref="I24:M24"/>
-    <mergeCell ref="I25:M25"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="I27:M27"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="B13:G18"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="I17:M17"/>
-    <mergeCell ref="I18:M18"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="B4:G9"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="I9:M9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N9 N14:N18 N23:N27 N32:N36 N41:N45 N50:N54 N59:N63 N68:N72">

--- a/trunk/documentacao/G4_Atividades2sem2014.xlsx
+++ b/trunk/documentacao/G4_Atividades2sem2014.xlsx
@@ -151,12 +151,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="N54" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Proprietario:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Rever comentários na apresentação e documento</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="80">
   <si>
     <t>Atividades</t>
   </si>
@@ -395,19 +419,7 @@
     <t>Correção dos comentários contidos no documento.</t>
   </si>
   <si>
-    <t>Semana 13 (24/11/2014)</t>
-  </si>
-  <si>
-    <t>Entrega do Relatório para distribuição banca (3 vias).</t>
-  </si>
-  <si>
-    <t>Orientação Aplicação Web</t>
-  </si>
-  <si>
     <t>Entrega do relatório.</t>
-  </si>
-  <si>
-    <t>Definição das apresentações TCM.</t>
   </si>
   <si>
     <t>Faltou fazer as correções da semana anterior.</t>
@@ -2022,10 +2034,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R72"/>
+  <dimension ref="B2:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E32" workbookViewId="0">
-      <selection activeCell="Q52" sqref="Q52"/>
+    <sheetView tabSelected="1" topLeftCell="E47" workbookViewId="0">
+      <selection activeCell="Q60" sqref="Q60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2233,7 +2245,7 @@
         <v>6</v>
       </c>
       <c r="O14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2740,7 +2752,9 @@
       <c r="K50" s="20"/>
       <c r="L50" s="20"/>
       <c r="M50" s="20"/>
-      <c r="N50" s="1"/>
+      <c r="N50" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="14"/>
@@ -2756,7 +2770,9 @@
       <c r="K51" s="20"/>
       <c r="L51" s="20"/>
       <c r="M51" s="20"/>
-      <c r="N51" s="1"/>
+      <c r="N51" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="52" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="14"/>
@@ -2800,7 +2816,9 @@
       <c r="K54" s="24"/>
       <c r="L54" s="24"/>
       <c r="M54" s="24"/>
-      <c r="N54" s="1"/>
+      <c r="N54" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="56" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B56" s="3" t="s">
@@ -2884,7 +2902,9 @@
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
       <c r="G61" s="16"/>
-      <c r="I61" s="20"/>
+      <c r="I61" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="J61" s="20"/>
       <c r="K61" s="20"/>
       <c r="L61" s="20"/>
@@ -2921,129 +2941,62 @@
       <c r="M63" s="24"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="65" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B65" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B66" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="I66" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="J66" s="27"/>
-      <c r="K66" s="27"/>
-      <c r="L66" s="27"/>
-      <c r="M66" s="27"/>
-      <c r="N66" s="27"/>
-    </row>
-    <row r="67" spans="2:14" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="13"/>
-      <c r="I67" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="J67" s="26"/>
-      <c r="K67" s="26"/>
-      <c r="L67" s="26"/>
-      <c r="M67" s="26"/>
-      <c r="N67" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B68" s="14"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="16"/>
-      <c r="I68" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="J68" s="20"/>
-      <c r="K68" s="20"/>
-      <c r="L68" s="20"/>
-      <c r="M68" s="20"/>
-      <c r="N68" s="1"/>
-    </row>
-    <row r="69" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="14"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="16"/>
-      <c r="I69" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="J69" s="20"/>
-      <c r="K69" s="20"/>
-      <c r="L69" s="20"/>
-      <c r="M69" s="20"/>
-      <c r="N69" s="1"/>
-    </row>
-    <row r="70" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="14"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="16"/>
-      <c r="I70" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="J70" s="20"/>
-      <c r="K70" s="20"/>
-      <c r="L70" s="20"/>
-      <c r="M70" s="20"/>
-      <c r="N70" s="1"/>
-    </row>
-    <row r="71" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="14"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="16"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="1"/>
-    </row>
-    <row r="72" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="19"/>
-      <c r="I72" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="J72" s="24"/>
-      <c r="K72" s="24"/>
-      <c r="L72" s="24"/>
-      <c r="M72" s="24"/>
-      <c r="N72" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="63">
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="I57:N57"/>
+    <mergeCell ref="B58:G63"/>
+    <mergeCell ref="I58:M58"/>
+    <mergeCell ref="I59:M59"/>
+    <mergeCell ref="I60:M60"/>
+    <mergeCell ref="I61:M61"/>
+    <mergeCell ref="I62:M62"/>
+    <mergeCell ref="I63:M63"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="I48:N48"/>
+    <mergeCell ref="B49:G54"/>
+    <mergeCell ref="I49:M49"/>
+    <mergeCell ref="I50:M50"/>
+    <mergeCell ref="I51:M51"/>
+    <mergeCell ref="I52:M52"/>
+    <mergeCell ref="I53:M53"/>
+    <mergeCell ref="I54:M54"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="B40:G45"/>
+    <mergeCell ref="I40:M40"/>
+    <mergeCell ref="I41:M41"/>
+    <mergeCell ref="I42:M42"/>
+    <mergeCell ref="I43:M43"/>
+    <mergeCell ref="I44:M44"/>
+    <mergeCell ref="I45:M45"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="B31:G36"/>
+    <mergeCell ref="I31:M31"/>
+    <mergeCell ref="I32:M32"/>
+    <mergeCell ref="I33:M33"/>
+    <mergeCell ref="I34:M34"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="I36:M36"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="B22:G27"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="I23:M23"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="I25:M25"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="I27:M27"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="B13:G18"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="I18:M18"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="B4:G9"/>
@@ -3053,72 +3006,9 @@
     <mergeCell ref="I7:M7"/>
     <mergeCell ref="I8:M8"/>
     <mergeCell ref="I9:M9"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="B13:G18"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="I17:M17"/>
-    <mergeCell ref="I18:M18"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="B22:G27"/>
-    <mergeCell ref="I22:M22"/>
-    <mergeCell ref="I23:M23"/>
-    <mergeCell ref="I24:M24"/>
-    <mergeCell ref="I25:M25"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="I27:M27"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="I30:N30"/>
-    <mergeCell ref="B31:G36"/>
-    <mergeCell ref="I31:M31"/>
-    <mergeCell ref="I32:M32"/>
-    <mergeCell ref="I33:M33"/>
-    <mergeCell ref="I34:M34"/>
-    <mergeCell ref="I35:M35"/>
-    <mergeCell ref="I36:M36"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="B40:G45"/>
-    <mergeCell ref="I40:M40"/>
-    <mergeCell ref="I41:M41"/>
-    <mergeCell ref="I42:M42"/>
-    <mergeCell ref="I43:M43"/>
-    <mergeCell ref="I44:M44"/>
-    <mergeCell ref="I45:M45"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="I48:N48"/>
-    <mergeCell ref="B49:G54"/>
-    <mergeCell ref="I49:M49"/>
-    <mergeCell ref="I50:M50"/>
-    <mergeCell ref="I51:M51"/>
-    <mergeCell ref="I52:M52"/>
-    <mergeCell ref="I53:M53"/>
-    <mergeCell ref="I54:M54"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="I57:N57"/>
-    <mergeCell ref="B58:G63"/>
-    <mergeCell ref="I58:M58"/>
-    <mergeCell ref="I59:M59"/>
-    <mergeCell ref="I60:M60"/>
-    <mergeCell ref="I61:M61"/>
-    <mergeCell ref="I62:M62"/>
-    <mergeCell ref="I63:M63"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="I66:N66"/>
-    <mergeCell ref="B67:G72"/>
-    <mergeCell ref="I67:M67"/>
-    <mergeCell ref="I68:M68"/>
-    <mergeCell ref="I69:M69"/>
-    <mergeCell ref="I70:M70"/>
-    <mergeCell ref="I71:M71"/>
-    <mergeCell ref="I72:M72"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N9 N14:N18 N23:N27 N32:N36 N41:N45 N50:N54 N59:N63 N68:N72">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N9 N14:N18 N23:N27 N32:N36 N41:N45 N50:N54 N59:N63">
       <formula1>$R$5:$R$7</formula1>
     </dataValidation>
   </dataValidations>
